--- a/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
+++ b/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WordStorm\Project Outputs for WordStorm\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89625830-ABD3-489B-99EC-21E45CD4AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{398C017C-7746-4D06-90BA-9489FE9BFB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{BD1BCAA0-4EB6-4D23-ADF7-90D39C923594}"/>
+    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{DCA09FCA-847F-4DF0-B2A2-45AEA071E5D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WordStorm" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
     <t>10 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R1, R2, R7, R8, R11, R12, R15, R17, R22, R42, R43</t>
+    <t>R1, R2, R7, R8, R11, R12, R15, R17, R22, R42, R44</t>
   </si>
   <si>
     <t>RMCF0603FG20K0</t>
@@ -461,7 +461,7 @@
     <t>0 Ohms Jumper Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R44</t>
+    <t>R43</t>
   </si>
   <si>
     <t>1040310811</t>
@@ -581,19 +581,19 @@
     <t>U15</t>
   </si>
   <si>
+    <t>STM32H743VIT6</t>
+  </si>
+  <si>
+    <t>ARM® Cortex®-M7 STM32H7 Microcontroller IC 32-Bit Single-Core 480MHz 2MB (2M x 8) FLASH 100-LQFP (14x14)</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
     <t>APX809S-31SA-7</t>
   </si>
   <si>
     <t>Supervisor Push-Pull, Totem Pole 1 Channel SOT-23-3</t>
-  </si>
-  <si>
-    <t>U16</t>
-  </si>
-  <si>
-    <t>STM32H743VIT6</t>
-  </si>
-  <si>
-    <t>ARM® Cortex®-M7 STM32H7 Microcontroller IC 32-Bit Single-Core 480MHz 2MB (2M x 8) FLASH 100-LQFP (14x14)</t>
   </si>
   <si>
     <t>U17</t>
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC80971-71FE-46C1-8F31-9A55987F6244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22164733-5A06-4E3F-BF9F-7F2F55F95AD6}">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
+++ b/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WordStorm\Project Outputs for WordStorm\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{398C017C-7746-4D06-90BA-9489FE9BFB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F1736A-7748-4CDF-A496-18316D57BF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{DCA09FCA-847F-4DF0-B2A2-45AEA071E5D5}"/>
+    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{18F37355-CBC1-4381-8F1D-DD340954FC28}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WordStorm" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22164733-5A06-4E3F-BF9F-7F2F55F95AD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24837E04-66BD-43C6-9219-861AA456EB9D}">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
+++ b/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WordStorm\Project Outputs for WordStorm\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F1736A-7748-4CDF-A496-18316D57BF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26027AA-E394-4521-AA89-F58B8E795F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{18F37355-CBC1-4381-8F1D-DD340954FC28}"/>
+    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{2E36A71D-9211-4AE0-AA00-8BFF2A79B2F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WordStorm" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="186">
   <si>
     <t>Line #</t>
   </si>
@@ -68,22 +68,22 @@
     <t>BUZZ1</t>
   </si>
   <si>
+    <t>GRM188R72A104MA35J</t>
+  </si>
+  <si>
+    <t>0.1 µF ±20% 100V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>C1, C4, C7, C9, C16, C17, C18, C19, C20, C36, C37, C38, C39, C40, C41, C43, C45, C48, C49, C50, C51, C52, C53</t>
+  </si>
+  <si>
     <t>GRM188R6YA475KE15D</t>
   </si>
   <si>
     <t>4.7 µF ±10% 35V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>C1, C14</t>
-  </si>
-  <si>
-    <t>GRM188R72A104MA35J</t>
-  </si>
-  <si>
-    <t>0.1 µF ±20% 100V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>C2, C4, C7, C9, C16, C17, C18, C19, C20, C36, C37, C38, C39, C40, C41, C43, C45, C48, C49, C50, C51, C52, C53</t>
+    <t>C2, C14</t>
   </si>
   <si>
     <t>GRM188R6YA106MA73D</t>
@@ -308,7 +308,7 @@
     <t>Bipolar (BJT) Transistor NPN 40 V 600 mA 300MHz 310 mW Surface Mount SOT-23-3</t>
   </si>
   <si>
-    <t>Q2</t>
+    <t>Q2, Q3</t>
   </si>
   <si>
     <t>RMCF0603FG10K0</t>
@@ -317,7 +317,7 @@
     <t>10 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R1, R2, R7, R8, R11, R12, R15, R17, R22, R42, R44</t>
+    <t>R1, R8, R11, R12, R15, R17, R22, R23, R24, R25, R26, R27, R28, R29, R30, R50, R52, R56</t>
   </si>
   <si>
     <t>RMCF0603FG20K0</t>
@@ -326,7 +326,43 @@
     <t>20 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R3, R5</t>
+    <t>R2, R7</t>
+  </si>
+  <si>
+    <t>RMCF0603FT180R</t>
+  </si>
+  <si>
+    <t>180 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>R3, R48</t>
+  </si>
+  <si>
+    <t>RMCF0603FG100K</t>
+  </si>
+  <si>
+    <t>100 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>R4, R5, R6, R14, R16, R31, R33, R37, R49</t>
+  </si>
+  <si>
+    <t>RMCF0603FT360K</t>
+  </si>
+  <si>
+    <t>360 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>RMCF0603FT40K2</t>
+  </si>
+  <si>
+    <t>40.2 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>R10</t>
   </si>
   <si>
     <t>RMCF0603FG1K00</t>
@@ -335,34 +371,7 @@
     <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R4, R13, R19</t>
-  </si>
-  <si>
-    <t>RMCF0603FG100K</t>
-  </si>
-  <si>
-    <t>100 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
-  </si>
-  <si>
-    <t>R6, R14, R16, R23, R25, R29, R41</t>
-  </si>
-  <si>
-    <t>RMCF0603FT360K</t>
-  </si>
-  <si>
-    <t>360 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>RMCF0603FT40K2</t>
-  </si>
-  <si>
-    <t>40.2 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
-  </si>
-  <si>
-    <t>R10</t>
+    <t>R13, R19</t>
   </si>
   <si>
     <t>YC164-JR-07100RL</t>
@@ -371,7 +380,7 @@
     <t>100 Ohm ±5% 62.5mW Power Per Element Isolated 4 Resistor Network/Array ±200ppm/°C 1206 (3216 Metric), Convex, Long Side Terminals</t>
   </si>
   <si>
-    <t>R18, R20, R21, R45, R46, R47</t>
+    <t>R18, R20, R21, R53, R54, R55</t>
   </si>
   <si>
     <t>RMCF0603FG15K0</t>
@@ -380,7 +389,7 @@
     <t>15 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R24, R32, R34, R36, R38</t>
+    <t>R32, R40, R42, R44, R46</t>
   </si>
   <si>
     <t>RMCF0603FT48K7</t>
@@ -389,7 +398,7 @@
     <t>48.7 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R26</t>
+    <t>R34</t>
   </si>
   <si>
     <t>RMCF0603FT80K6</t>
@@ -398,7 +407,7 @@
     <t>80.6 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R27</t>
+    <t>R35</t>
   </si>
   <si>
     <t>RMCF0603FG16K0</t>
@@ -407,7 +416,7 @@
     <t>16 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R28</t>
+    <t>R36</t>
   </si>
   <si>
     <t>RMCF0603FT63K4</t>
@@ -416,7 +425,7 @@
     <t>63.4 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R30</t>
+    <t>R38</t>
   </si>
   <si>
     <t>RMCF0603FG39K0</t>
@@ -425,7 +434,7 @@
     <t>39 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R31</t>
+    <t>R39</t>
   </si>
   <si>
     <t>RMCF0603FG100R</t>
@@ -434,7 +443,7 @@
     <t>100 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R33, R37</t>
+    <t>R41, R45</t>
   </si>
   <si>
     <t>RMCF0603FG24K0</t>
@@ -443,16 +452,7 @@
     <t>24 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R35, R39</t>
-  </si>
-  <si>
-    <t>RMCF0603FT180R</t>
-  </si>
-  <si>
-    <t>180 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
-  </si>
-  <si>
-    <t>R40</t>
+    <t>R43, R47</t>
   </si>
   <si>
     <t>RMCF0603ZT0R00</t>
@@ -461,7 +461,7 @@
     <t>0 Ohms Jumper Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R43</t>
+    <t>R51</t>
   </si>
   <si>
     <t>1040310811</t>
@@ -473,103 +473,94 @@
     <t>SD1</t>
   </si>
   <si>
-    <t>VN7040ASTR</t>
-  </si>
-  <si>
-    <t>Power Switch/Driver 1:1 N-Channel 24A 8-SOIC</t>
+    <t>AP63203WU-7</t>
+  </si>
+  <si>
+    <t>Buck Switching Regulator IC Positive Fixed 3.3V 1 Output 2A SOT-23-6 Thin, TSOT-23-6</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
-    <t>AP63203WU-7</t>
-  </si>
-  <si>
-    <t>Buck Switching Regulator IC Positive Fixed 3.3V 1 Output 2A SOT-23-6 Thin, TSOT-23-6</t>
+    <t>TPS7B6933QDCYRQ1</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator IC Positive Fixed 1 Output 150mA SOT-223-4</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
-    <t>TPS7B6933QDCYRQ1</t>
-  </si>
-  <si>
-    <t>Linear Voltage Regulator IC Positive Fixed 1 Output 150mA SOT-223-4</t>
+    <t>MP2338GTL-Z</t>
+  </si>
+  <si>
+    <t>Buck Switching Regulator IC Positive Adjustable 0.5V 1 Output 3A SOT-583</t>
   </si>
   <si>
     <t>U3</t>
   </si>
   <si>
-    <t>MP2338GTL-Z</t>
-  </si>
-  <si>
-    <t>Buck Switching Regulator IC Positive Adjustable 0.5V 1 Output 3A SOT-583</t>
+    <t>ATTINY85-20PU</t>
+  </si>
+  <si>
+    <t>AVR AVR® ATtiny, Functional Safety (FuSa) Microcontroller IC 8-Bit 20MHz 8KB (4K x 16) FLASH 8-PDIP</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
-    <t>ATTINY85-20PU</t>
-  </si>
-  <si>
-    <t>AVR AVR® ATtiny, Functional Safety (FuSa) Microcontroller IC 8-Bit 20MHz 8KB (4K x 16) FLASH 8-PDIP</t>
+    <t>STMPS2141STR</t>
+  </si>
+  <si>
+    <t>Power Switch/Driver 1:1 N-Channel 500mA SOT-23-5</t>
   </si>
   <si>
     <t>U5</t>
   </si>
   <si>
-    <t>STMPS2141STR</t>
-  </si>
-  <si>
-    <t>Power Switch/Driver 1:1 N-Channel 500mA SOT-23-5</t>
+    <t>TS3USB221ARSER</t>
+  </si>
+  <si>
+    <t>USB Switch IC 2 Channel 10-UQFN (2.0x1.5)</t>
   </si>
   <si>
     <t>U6</t>
   </si>
   <si>
-    <t>TS3USB221ARSER</t>
-  </si>
-  <si>
-    <t>USB Switch IC 2 Channel 10-UQFN (2.0x1.5)</t>
+    <t>SN74LVC2G34DBVR</t>
+  </si>
+  <si>
+    <t>Buffer, Non-Inverting 2 Element 1 Bit per Element Push-Pull Output SOT-23-6</t>
   </si>
   <si>
     <t>U7</t>
   </si>
   <si>
-    <t>SN74LVC2G34DBVR</t>
-  </si>
-  <si>
-    <t>Buffer, Non-Inverting 2 Element 1 Bit per Element Push-Pull Output SOT-23-6</t>
+    <t>SN74LVC541APWR</t>
+  </si>
+  <si>
+    <t>Buffer, Non-Inverting 1 Element 8 Bit per Element 3-State Output 20-TSSOP</t>
   </si>
   <si>
     <t>U8</t>
   </si>
   <si>
-    <t>SN74LVC541APWR</t>
-  </si>
-  <si>
-    <t>Buffer, Non-Inverting 1 Element 8 Bit per Element 3-State Output 20-TSSOP</t>
+    <t>DRV8426RGER</t>
+  </si>
+  <si>
+    <t>Bipolar Motor Driver Power MOSFET Step/Direction 24-VQFN (4x4)</t>
   </si>
   <si>
     <t>U9</t>
   </si>
   <si>
-    <t>DRV8426RGER</t>
-  </si>
-  <si>
-    <t>Bipolar Motor Driver Power MOSFET Step/Direction 24-VQFN (4x4)</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
     <t>MCP6561T-E/LT</t>
   </si>
   <si>
     <t>Comparator General Purpose CMOS, Push-Pull, Rail-to-Rail, TTL SC-70-5</t>
   </si>
   <si>
-    <t>U11, U12, U13, U14</t>
+    <t>U10, U11, U12, U13</t>
   </si>
   <si>
     <t>W25Q64JVSSIQ</t>
@@ -578,25 +569,25 @@
     <t>FLASH - NOR Memory IC 64Mbit SPI - Quad I/O 133 MHz 8-SOIC</t>
   </si>
   <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>STM32H743VIT6</t>
+  </si>
+  <si>
+    <t>ARM® Cortex®-M7 STM32H7 Microcontroller IC 32-Bit Single-Core 480MHz 2MB (2M x 8) FLASH 100-LQFP (14x14)</t>
+  </si>
+  <si>
     <t>U15</t>
   </si>
   <si>
-    <t>STM32H743VIT6</t>
-  </si>
-  <si>
-    <t>ARM® Cortex®-M7 STM32H7 Microcontroller IC 32-Bit Single-Core 480MHz 2MB (2M x 8) FLASH 100-LQFP (14x14)</t>
+    <t>APX809S-31SA-7</t>
+  </si>
+  <si>
+    <t>Supervisor Push-Pull, Totem Pole 1 Channel SOT-23-3</t>
   </si>
   <si>
     <t>U16</t>
-  </si>
-  <si>
-    <t>APX809S-31SA-7</t>
-  </si>
-  <si>
-    <t>Supervisor Push-Pull, Totem Pole 1 Channel SOT-23-3</t>
-  </si>
-  <si>
-    <t>U17</t>
   </si>
   <si>
     <t>CSTNE8M00G550000R0</t>
@@ -1001,8 +992,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24837E04-66BD-43C6-9219-861AA456EB9D}">
-  <dimension ref="A1:E62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28104AA6-94FE-40E3-9EEC-9621E4C910FD}">
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1501,7 +1492,7 @@
         <v>89</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1518,7 +1509,7 @@
         <v>92</v>
       </c>
       <c r="E30" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,7 +1543,7 @@
         <v>98</v>
       </c>
       <c r="E32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,7 +1560,7 @@
         <v>101</v>
       </c>
       <c r="E33" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,7 +1611,7 @@
         <v>110</v>
       </c>
       <c r="E36" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,7 +1628,7 @@
         <v>113</v>
       </c>
       <c r="E37" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1654,7 +1645,7 @@
         <v>116</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1739,7 +1730,7 @@
         <v>131</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1773,7 +1764,7 @@
         <v>137</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1811,9 +1802,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
         <v>144</v>
       </c>
@@ -1828,7 +1817,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>147</v>
       </c>
@@ -1975,7 +1966,7 @@
         <v>173</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1992,7 +1983,7 @@
         <v>176</v>
       </c>
       <c r="E58" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2043,23 +2034,6 @@
         <v>185</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
+++ b/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WordStorm\Project Outputs for WordStorm\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26027AA-E394-4521-AA89-F58B8E795F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7564054B-E683-4E1D-B393-D4CA6D221C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{2E36A71D-9211-4AE0-AA00-8BFF2A79B2F8}"/>
+    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{DDD143FC-0EB3-481A-9613-255AF01035D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WordStorm" sheetId="1" r:id="rId1"/>
@@ -77,40 +77,40 @@
     <t>C1, C4, C7, C9, C16, C17, C18, C19, C20, C36, C37, C38, C39, C40, C41, C43, C45, C48, C49, C50, C51, C52, C53</t>
   </si>
   <si>
+    <t>C2012X5R1V226M125AC</t>
+  </si>
+  <si>
+    <t>CAP CER 22UF 35V X5R 0805</t>
+  </si>
+  <si>
+    <t>C2, C5, C6, C8, C10, C11</t>
+  </si>
+  <si>
+    <t>GRM188R6YA106MA73D</t>
+  </si>
+  <si>
+    <t>10 µF ±20% 35V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>C3, C13</t>
+  </si>
+  <si>
+    <t>GRM1885C2A471JA01D</t>
+  </si>
+  <si>
+    <t>470 pF ±5% 100V Ceramic Capacitor C0G, NP0 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
     <t>GRM188R6YA475KE15D</t>
   </si>
   <si>
     <t>4.7 µF ±10% 35V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>C2, C14</t>
-  </si>
-  <si>
-    <t>GRM188R6YA106MA73D</t>
-  </si>
-  <si>
-    <t>10 µF ±20% 35V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>C3, C13</t>
-  </si>
-  <si>
-    <t>C2012X5R1V226M125AC</t>
-  </si>
-  <si>
-    <t>CAP CER 22UF 35V X5R 0805</t>
-  </si>
-  <si>
-    <t>C5, C6, C8, C10, C11</t>
-  </si>
-  <si>
-    <t>GRM1885C2A471JA01D</t>
-  </si>
-  <si>
-    <t>470 pF ±5% 100V Ceramic Capacitor C0G, NP0 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>C12</t>
+    <t>C14</t>
   </si>
   <si>
     <t>GRM188R72A223KAC4D</t>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28104AA6-94FE-40E3-9EEC-9621E4C910FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF646E68-7D22-4957-80CE-9C9175C69938}">
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1071,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
+++ b/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WordStorm\Project Outputs for WordStorm\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7564054B-E683-4E1D-B393-D4CA6D221C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C20F446C-937D-4C8F-B7DC-49010DDF60FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{DDD143FC-0EB3-481A-9613-255AF01035D9}"/>
+    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{27FE03CE-5F51-428A-A10E-6A2BDEFED7EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WordStorm" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF646E68-7D22-4957-80CE-9C9175C69938}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD9F18E-7485-4D99-8693-B6A0183AFFAF}">
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
+++ b/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WordStorm\Project Outputs for WordStorm\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C20F446C-937D-4C8F-B7DC-49010DDF60FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE7E3D02-AC6D-4948-867E-02E5985BAEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{27FE03CE-5F51-428A-A10E-6A2BDEFED7EB}"/>
+    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{6D47CAAE-97AC-4453-8B55-43EAA7C4E3A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WordStorm" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
     <t>CAP ALUM 100UF 20% 50V SMD</t>
   </si>
   <si>
-    <t>C21, C22, C32</t>
+    <t>C21, C32</t>
   </si>
   <si>
     <t>GRM188R72A103KA01D</t>
@@ -137,7 +137,7 @@
     <t>0.01 µF ±10% 100V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>C23, C24, C25, C26, C27, C28, C29, C33, C34</t>
+    <t>C28, C29, C33, C34</t>
   </si>
   <si>
     <t>GRM188R71H224KAC4D</t>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD9F18E-7485-4D99-8693-B6A0183AFFAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47740DCB-F035-451F-85D1-4E061A1C4234}">
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1156,7 +1156,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
+++ b/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WordStorm\Project Outputs for WordStorm\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE7E3D02-AC6D-4948-867E-02E5985BAEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9563505C-DE59-4A62-AB19-C02F0A0A5C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{6D47CAAE-97AC-4453-8B55-43EAA7C4E3A8}"/>
+    <workbookView xWindow="3615" yWindow="2775" windowWidth="21600" windowHeight="13065" xr2:uid="{2AB78599-B057-4CF1-890B-24F720035F9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WordStorm" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47740DCB-F035-451F-85D1-4E061A1C4234}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E003A42-147D-40E1-8F4E-AAC37DB0E6C4}">
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
+++ b/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WordStorm\Project Outputs for WordStorm\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9563505C-DE59-4A62-AB19-C02F0A0A5C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35A75DF-5B77-46F3-9DB4-11F4E0285BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2775" windowWidth="21600" windowHeight="13065" xr2:uid="{2AB78599-B057-4CF1-890B-24F720035F9E}"/>
+    <workbookView xWindow="3615" yWindow="2775" windowWidth="21600" windowHeight="13065" xr2:uid="{A9E9E034-B60C-4E49-8FF6-284D37D8F918}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WordStorm" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E003A42-147D-40E1-8F4E-AAC37DB0E6C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437372D4-968E-4737-99EF-98275B8EFE93}">
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
+++ b/Project Outputs for WordStorm/BOM/Bill of Materials-WordStorm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\WordStorm\Project Outputs for WordStorm\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35A75DF-5B77-46F3-9DB4-11F4E0285BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2300EDF4-C078-452B-A4A3-4176F80CBDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2775" windowWidth="21600" windowHeight="13065" xr2:uid="{A9E9E034-B60C-4E49-8FF6-284D37D8F918}"/>
+    <workbookView xWindow="3615" yWindow="2775" windowWidth="21600" windowHeight="13065" xr2:uid="{5A913B72-C91A-4835-BAB8-A559B6CE0A00}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-WordStorm" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437372D4-968E-4737-99EF-98275B8EFE93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C4E01A-09E0-46F2-8C77-B0B91FCFCEF8}">
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
